--- a/2022 Весенний семестр/Практическое задание 15/Результаты задания №15.xlsx
+++ b/2022 Весенний семестр/Практическое задание 15/Результаты задания №15.xlsx
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +165,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -193,9 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -550,15 +560,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -568,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -645,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,7 +675,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,7 +705,7 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,7 +727,7 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
